--- a/data/trans_bre/P25_11-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_11-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,19</t>
+          <t>12,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,86</t>
+          <t>8,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,79</t>
+          <t>14,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,96</t>
+          <t>9,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>186,76%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>73,71%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>209,05%</t>
+          <t>193,82%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>204,54%</t>
+          <t>101,56%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>220,5%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>77,92%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,87; 17,32</t>
+          <t>4,92; 20,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 13,48</t>
+          <t>1,96; 14,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,56; 18,81</t>
+          <t>9,12; 19,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,01; 21,37</t>
+          <t>1,04; 19,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>63,22; 453,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 188,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>75,39; 437,71</t>
+          <t>42,31; 519,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>84,85; 384,28</t>
+          <t>14,0; 250,19</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>93,62; 474,98</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2,08; 225,43</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,42</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,67</t>
+          <t>10,34</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>129,89%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>149,6%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>92,89%</t>
+          <t>120,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>133,9%</t>
+          <t>115,3%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>84,44%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>181,54%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 9,71</t>
+          <t>0,98; 10,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,77; 7,65</t>
+          <t>1,26; 7,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 8,01</t>
+          <t>0,8; 9,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,51; 12,39</t>
+          <t>5,76; 15,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,54; 280,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,8; 306,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,49; 215,57</t>
+          <t>2,13; 339,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>50,14; 261,19</t>
+          <t>13,82; 274,55</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 230,0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>65,35; 402,04</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,09</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-15,04%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>103,6%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>84,99%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>67,14%</t>
+          <t>163,76%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>82,37%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9,76%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 2,54</t>
+          <t>-3,31; 5,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 7,22</t>
+          <t>2,14; 8,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 5,37</t>
+          <t>0,1; 5,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 6,98</t>
+          <t>-3,52; 4,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-54,83; 63,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,23; 304,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 253,93</t>
+          <t>-40,85; 153,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-31,33; 273,45</t>
+          <t>29,6; 445,05</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-3,42; 238,88</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-42,84; 124,65</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,95</t>
+          <t>7,05</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,53</t>
+          <t>8,63</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>88,82%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>112,39%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>133,28%</t>
+          <t>45,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>152,68%</t>
+          <t>98,27%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>116,81%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 7,54</t>
+          <t>-1,1; 6,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,6; 7,94</t>
+          <t>0,78; 12,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,84; 8,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,82; 12,4</t>
+          <t>3,73; 13,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,64; 171,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,77; 187,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>55,92; 226,68</t>
+          <t>-16,18; 139,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>93,77; 248,55</t>
+          <t>-2,61; 291,87</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>36,2; 235,32</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4,41</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,11</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,62</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7,54</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>75,87%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>113,32%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>126,32%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>105,01%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1,73; 6,77</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,61; 8,17</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4,13; 8,96</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4,7; 10,15</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>23,48; 144,25</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>48,27; 189,07</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>59,66; 213,18</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>54,19; 168,55</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25_11-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_11-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>12,99</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>8,88</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>14,39</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>9,56</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>193,82%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>101,56%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>220,5%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>77,92%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>14.5834229411606</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>9.11947102345848</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>14.19270805505028</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>9.847522050699137</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>2.273074818974329</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.044618196808057</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>2.106493045535894</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.8130875792462515</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>4,92; 20,86</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,96; 14,61</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>9,12; 19,51</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>1,04; 19,1</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>42,31; 519,54</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>14,0; 250,19</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>93,62; 474,98</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>2,08; 225,43</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>6.241787296679288</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>2.116724278575527</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>8.711040493403369</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1.198720590335367</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>0.5504013246223194</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.1465644212382177</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.825411975901591</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.04807861707033757</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>23.23803202922764</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>15.05812016648025</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>19.50365660139325</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>19.33679768530081</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>5.988229979025201</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.544616378985434</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>4.626402824605317</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>2.446584006802719</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,49</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,85</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,06</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>10,34</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>120,05%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>115,3%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>84,44%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>181,54%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,98; 10,45</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,26; 7,48</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,8; 9,46</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>5,76; 15,07</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>2,13; 339,66</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>13,82; 274,55</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 230,0</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>65,35; 402,04</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>5.856378229998676</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5.162874297297206</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5.067445714810316</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>10.40313784433634</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>1.339827105271586</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.269452341751116</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.8823336329400983</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>1.868155094226001</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,16</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,2</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,7</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,6</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>19,73%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>163,76%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>82,37%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>9,76%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1.541531049541106</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1.532592189371031</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.9915220231929077</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>5.736507669473907</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>0.135591310533938</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.1495101036868089</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.03912905040518255</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.6863196590901552</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,31; 5,32</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,14; 8,29</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 5,05</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,52; 4,64</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-40,85; 153,23</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>29,6; 445,05</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-3,42; 238,88</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-42,84; 124,65</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>10.51244456302793</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.935748363224823</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>9.163404373326351</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>14.99084994869873</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>3.745561599296718</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>3.013181303081667</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>2.274158143702119</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>4.112203816840521</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,86</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,05</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>8,63</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>45,08%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>98,27%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>116,81%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.4836111601985535</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.95975799578077</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.5655734509913</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.4876883495831943</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.0755018709735214</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.437789069881673</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.7709278918219951</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.08088353886087846</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 6,26</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,78; 12,62</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>3,73; 13,95</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-16,18; 139,34</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-2,61; 291,87</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>36,2; 235,32</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.05578173281965</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1.369026369717363</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.02041603708569754</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-3.574320861874497</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.4866832014087339</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.1689983918354767</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.08031202507537891</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.4284485702155094</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.916925393457807</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.064863233145903</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.058153003848896</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.432348206280601</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>1.318527083473171</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>3.987739686079543</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>2.340249708064273</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.168817086599301</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>4,41</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>6,11</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>6,62</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>7,54</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>75,87%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>113,32%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>126,32%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>105,01%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1,73; 6,77</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>3,61; 8,17</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>4,13; 8,96</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>4,7; 10,15</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>23,48; 144,25</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>48,27; 189,07</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>59,66; 213,18</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>54,19; 168,55</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>5.646425736455617</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.11810063835117</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>6.582891261667978</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>7.265223677554474</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>1.036417871393728</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.270927660517158</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>1.266547087615528</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>1.042640237395921</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>2.497321718275766</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>3.65662884066596</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>4.1313073933999</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>4.208493573813924</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>0.3340477074506453</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.5276186289947625</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.617174725776939</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.498327291312437</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.551344596689525</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>8.403055972393682</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>8.806796484012839</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>10.34779351217522</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>2.033264988614968</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.190299767632575</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>2.146845908415491</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.795063858424415</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
